--- a/Code/Results/Cases/Case_6_28/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_28/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.011826762917063</v>
+        <v>1.003498499313791</v>
       </c>
       <c r="D2">
-        <v>1.02863160579959</v>
+        <v>1.021929691345704</v>
       </c>
       <c r="E2">
-        <v>1.02451265269317</v>
+        <v>1.017813788727148</v>
       </c>
       <c r="F2">
-        <v>1.031807451651281</v>
+        <v>1.024926703229852</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.052236985034604</v>
+        <v>1.048641857990049</v>
       </c>
       <c r="J2">
-        <v>1.033659401371771</v>
+        <v>1.025575072022808</v>
       </c>
       <c r="K2">
-        <v>1.039705963004104</v>
+        <v>1.033091736302196</v>
       </c>
       <c r="L2">
-        <v>1.035640731949818</v>
+        <v>1.029030404623464</v>
       </c>
       <c r="M2">
-        <v>1.042840753713512</v>
+        <v>1.03604935771129</v>
       </c>
       <c r="N2">
-        <v>1.03512731628411</v>
+        <v>1.027031506260188</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.01902926603073</v>
+        <v>1.008319511675821</v>
       </c>
       <c r="D3">
-        <v>1.03418258758633</v>
+        <v>1.0255450689594</v>
       </c>
       <c r="E3">
-        <v>1.030723052596991</v>
+        <v>1.021886982483618</v>
       </c>
       <c r="F3">
-        <v>1.038440281460793</v>
+        <v>1.029457335063535</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.054741274365801</v>
+        <v>1.050100390711047</v>
       </c>
       <c r="J3">
-        <v>1.039014281965824</v>
+        <v>1.028585919457697</v>
       </c>
       <c r="K3">
-        <v>1.044396007850578</v>
+        <v>1.035861204917738</v>
       </c>
       <c r="L3">
-        <v>1.040977356877641</v>
+        <v>1.03224726971593</v>
       </c>
       <c r="M3">
-        <v>1.048603847704136</v>
+        <v>1.039726682411722</v>
       </c>
       <c r="N3">
-        <v>1.040489801422819</v>
+        <v>1.030046629443781</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.023555214676713</v>
+        <v>1.011371567774271</v>
       </c>
       <c r="D4">
-        <v>1.037671750242051</v>
+        <v>1.027833709134427</v>
       </c>
       <c r="E4">
-        <v>1.034631353298877</v>
+        <v>1.024471486556903</v>
       </c>
       <c r="F4">
-        <v>1.04261518723503</v>
+        <v>1.03233133878506</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.0562999511627</v>
+        <v>1.051009264080637</v>
       </c>
       <c r="J4">
-        <v>1.042374983004141</v>
+        <v>1.030488793836264</v>
       </c>
       <c r="K4">
-        <v>1.047335815045343</v>
+        <v>1.037607422279069</v>
       </c>
       <c r="L4">
-        <v>1.044329030553007</v>
+        <v>1.034283268103205</v>
       </c>
       <c r="M4">
-        <v>1.052225114617749</v>
+        <v>1.042054605201784</v>
       </c>
       <c r="N4">
-        <v>1.043855275042088</v>
+        <v>1.031952206122228</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.025427442729927</v>
+        <v>1.012639105098381</v>
       </c>
       <c r="D5">
-        <v>1.039115233958683</v>
+        <v>1.02878409313873</v>
       </c>
       <c r="E5">
-        <v>1.036249384456812</v>
+        <v>1.025546210178975</v>
       </c>
       <c r="F5">
-        <v>1.044343782125472</v>
+        <v>1.033526274518458</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.056941060694181</v>
+        <v>1.051383194513797</v>
       </c>
       <c r="J5">
-        <v>1.04376411097919</v>
+        <v>1.031278259225885</v>
       </c>
       <c r="K5">
-        <v>1.048550069402401</v>
+        <v>1.038330889122705</v>
       </c>
       <c r="L5">
-        <v>1.045715003364602</v>
+        <v>1.035128666313258</v>
       </c>
       <c r="M5">
-        <v>1.053722987807071</v>
+        <v>1.043021337667744</v>
       </c>
       <c r="N5">
-        <v>1.045246375738197</v>
+        <v>1.032742792643255</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.025740058423221</v>
+        <v>1.012851035444926</v>
       </c>
       <c r="D6">
-        <v>1.039356265206264</v>
+        <v>1.028942988112366</v>
       </c>
       <c r="E6">
-        <v>1.03651962987036</v>
+        <v>1.025725981235644</v>
       </c>
       <c r="F6">
-        <v>1.044632505350198</v>
+        <v>1.033726143848733</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.057047892918483</v>
+        <v>1.05144550601652</v>
       </c>
       <c r="J6">
-        <v>1.043995995795882</v>
+        <v>1.031410207945746</v>
       </c>
       <c r="K6">
-        <v>1.048752709256282</v>
+        <v>1.038451747410118</v>
       </c>
       <c r="L6">
-        <v>1.045946395208544</v>
+        <v>1.035270004816055</v>
       </c>
       <c r="M6">
-        <v>1.053973086354453</v>
+        <v>1.043182968614869</v>
       </c>
       <c r="N6">
-        <v>1.045478589857926</v>
+        <v>1.032874928745433</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C7">
-        <v>1.02358034906129</v>
+        <v>1.011388564984074</v>
       </c>
       <c r="D7">
-        <v>1.037691128382771</v>
+        <v>1.027846453920487</v>
       </c>
       <c r="E7">
-        <v>1.034653070078229</v>
+        <v>1.024485892876745</v>
       </c>
       <c r="F7">
-        <v>1.042638387212774</v>
+        <v>1.03234735717524</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.056308572536633</v>
+        <v>1.051014292370726</v>
       </c>
       <c r="J7">
-        <v>1.042393636186374</v>
+        <v>1.030499383527244</v>
       </c>
       <c r="K7">
-        <v>1.047352123620509</v>
+        <v>1.037617130679632</v>
       </c>
       <c r="L7">
-        <v>1.044347639094886</v>
+        <v>1.034294605284285</v>
       </c>
       <c r="M7">
-        <v>1.052245223913877</v>
+        <v>1.042067569055779</v>
       </c>
       <c r="N7">
-        <v>1.04387395471398</v>
+        <v>1.031962810851784</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.01428983032976</v>
+        <v>1.005142125063248</v>
       </c>
       <c r="D8">
-        <v>1.030529618257187</v>
+        <v>1.023162274568367</v>
       </c>
       <c r="E8">
-        <v>1.026635175457501</v>
+        <v>1.019201200027908</v>
       </c>
       <c r="F8">
-        <v>1.03407419109145</v>
+        <v>1.02647009013462</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053096505147485</v>
+        <v>1.049142121413266</v>
       </c>
       <c r="J8">
-        <v>1.03549148222756</v>
+        <v>1.026602209496412</v>
       </c>
       <c r="K8">
-        <v>1.041311335918355</v>
+        <v>1.034037378608414</v>
       </c>
       <c r="L8">
-        <v>1.037466049495115</v>
+        <v>1.030127211613221</v>
       </c>
       <c r="M8">
-        <v>1.044811569565439</v>
+        <v>1.037303058198285</v>
       </c>
       <c r="N8">
-        <v>1.036961998904856</v>
+        <v>1.028060102386816</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9968023205912284</v>
+        <v>0.993589564303807</v>
       </c>
       <c r="D9">
-        <v>1.017062990654568</v>
+        <v>1.014500865311931</v>
       </c>
       <c r="E9">
-        <v>1.011594272951629</v>
+        <v>1.009476472499708</v>
       </c>
       <c r="F9">
-        <v>1.018014321549731</v>
+        <v>1.01564852465134</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046932229704927</v>
+        <v>1.045566569957324</v>
       </c>
       <c r="J9">
-        <v>1.022468504690329</v>
+        <v>1.019370740281932</v>
       </c>
       <c r="K9">
-        <v>1.029885168392086</v>
+        <v>1.027362976912724</v>
       </c>
       <c r="L9">
-        <v>1.024502000789998</v>
+        <v>1.022417649074173</v>
       </c>
       <c r="M9">
-        <v>1.030821737004945</v>
+        <v>1.028492716729217</v>
       </c>
       <c r="N9">
-        <v>1.023920527245766</v>
+        <v>1.02081836365659</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.984258561600478</v>
+        <v>0.9854778058164075</v>
       </c>
       <c r="D10">
-        <v>1.007420880231612</v>
+        <v>1.008424960315798</v>
       </c>
       <c r="E10">
-        <v>1.000847200459121</v>
+        <v>1.002684850518677</v>
       </c>
       <c r="F10">
-        <v>1.006542664843707</v>
+        <v>1.008085916157249</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042434958862652</v>
+        <v>1.042982990590929</v>
       </c>
       <c r="J10">
-        <v>1.013110955718895</v>
+        <v>1.014279686749493</v>
       </c>
       <c r="K10">
-        <v>1.021657428706196</v>
+        <v>1.022643747587534</v>
       </c>
       <c r="L10">
-        <v>1.015201175269405</v>
+        <v>1.017005797777186</v>
       </c>
       <c r="M10">
-        <v>1.020794785791851</v>
+        <v>1.022310695659938</v>
       </c>
       <c r="N10">
-        <v>1.014549689481467</v>
+        <v>1.015720080244183</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9785817745213263</v>
+        <v>0.9818574821289191</v>
       </c>
       <c r="D11">
-        <v>1.003063528010982</v>
+        <v>1.005715712018781</v>
       </c>
       <c r="E11">
-        <v>0.995995207400401</v>
+        <v>0.9996632449880377</v>
       </c>
       <c r="F11">
-        <v>1.001364249392003</v>
+        <v>1.00471996799465</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040382939036969</v>
+        <v>1.041813453054705</v>
       </c>
       <c r="J11">
-        <v>1.008873543015008</v>
+        <v>1.012004984865207</v>
       </c>
       <c r="K11">
-        <v>1.017927901013373</v>
+        <v>1.020530637403306</v>
       </c>
       <c r="L11">
-        <v>1.010993045504026</v>
+        <v>1.014591514810736</v>
       </c>
       <c r="M11">
-        <v>1.016260483746052</v>
+        <v>1.019553418209153</v>
       </c>
       <c r="N11">
-        <v>1.010306259165503</v>
+        <v>1.01344214802231</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9764328551074739</v>
+        <v>0.9804955423614614</v>
       </c>
       <c r="D12">
-        <v>1.001415218425629</v>
+        <v>1.004696980194538</v>
       </c>
       <c r="E12">
-        <v>0.9941604364214488</v>
+        <v>0.998528046187329</v>
       </c>
       <c r="F12">
-        <v>0.9994061370410792</v>
+        <v>1.003455188584108</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039603758780567</v>
+        <v>1.041371081500036</v>
       </c>
       <c r="J12">
-        <v>1.007269227386734</v>
+        <v>1.011148935151114</v>
       </c>
       <c r="K12">
-        <v>1.016515355217232</v>
+        <v>1.019734743347063</v>
       </c>
       <c r="L12">
-        <v>1.009400374962893</v>
+        <v>1.013683500946582</v>
       </c>
       <c r="M12">
-        <v>1.01454472337866</v>
+        <v>1.018516490668757</v>
       </c>
       <c r="N12">
-        <v>1.008699665225019</v>
+        <v>1.012584882619432</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9768956901135917</v>
+        <v>0.9807884775887071</v>
       </c>
       <c r="D13">
-        <v>1.001770176789716</v>
+        <v>1.004916073164324</v>
       </c>
       <c r="E13">
-        <v>0.9945555201295637</v>
+        <v>0.9987721430758222</v>
       </c>
       <c r="F13">
-        <v>0.999827775941405</v>
+        <v>1.003727158486103</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039771685135676</v>
+        <v>1.041466336948041</v>
       </c>
       <c r="J13">
-        <v>1.007614775259453</v>
+        <v>1.011333073759668</v>
       </c>
       <c r="K13">
-        <v>1.01681962119124</v>
+        <v>1.019905971571792</v>
       </c>
       <c r="L13">
-        <v>1.009743389128539</v>
+        <v>1.013878791631808</v>
       </c>
       <c r="M13">
-        <v>1.014914231231281</v>
+        <v>1.018739503502194</v>
       </c>
       <c r="N13">
-        <v>1.009045703815351</v>
+        <v>1.012769282725932</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9784049880499219</v>
+        <v>0.9817452603953646</v>
       </c>
       <c r="D14">
-        <v>1.002927901071023</v>
+        <v>1.005631759998403</v>
       </c>
       <c r="E14">
-        <v>0.9958442250528201</v>
+        <v>0.9995696752799484</v>
       </c>
       <c r="F14">
-        <v>1.001203115499273</v>
+        <v>1.004615721910066</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040318885656016</v>
+        <v>1.041777050642998</v>
       </c>
       <c r="J14">
-        <v>1.008741564403825</v>
+        <v>1.011934453914015</v>
       </c>
       <c r="K14">
-        <v>1.017811708574022</v>
+        <v>1.020465075946452</v>
       </c>
       <c r="L14">
-        <v>1.010862013439737</v>
+        <v>1.014516690981626</v>
       </c>
       <c r="M14">
-        <v>1.016119317561541</v>
+        <v>1.019467969640203</v>
       </c>
       <c r="N14">
-        <v>1.010174093129553</v>
+        <v>1.013371516909077</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9793294640173171</v>
+        <v>0.982332457279659</v>
       </c>
       <c r="D15">
-        <v>1.003637187756796</v>
+        <v>1.006071056110494</v>
       </c>
       <c r="E15">
-        <v>0.9966338419357903</v>
+        <v>1.000059337875646</v>
       </c>
       <c r="F15">
-        <v>1.002045827338593</v>
+        <v>1.005161246616681</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04065374560187</v>
+        <v>1.041967427850311</v>
       </c>
       <c r="J15">
-        <v>1.009431715011347</v>
+        <v>1.012303492202088</v>
       </c>
       <c r="K15">
-        <v>1.018419288325949</v>
+        <v>1.020808085795915</v>
       </c>
       <c r="L15">
-        <v>1.011547237109117</v>
+        <v>1.014908213875277</v>
       </c>
       <c r="M15">
-        <v>1.01685755153105</v>
+        <v>1.019915091040059</v>
       </c>
       <c r="N15">
-        <v>1.010865223830099</v>
+        <v>1.013741079273848</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9846298585168829</v>
+        <v>0.9857157197286296</v>
       </c>
       <c r="D16">
-        <v>1.007706024209189</v>
+        <v>1.008603061215246</v>
       </c>
       <c r="E16">
-        <v>1.001164806536996</v>
+        <v>1.002883623629701</v>
       </c>
       <c r="F16">
-        <v>1.006881651854973</v>
+        <v>1.008307312656084</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042568836728046</v>
+        <v>1.04305951152679</v>
       </c>
       <c r="J16">
-        <v>1.013388065396783</v>
+        <v>1.014429123532319</v>
       </c>
       <c r="K16">
-        <v>1.021901250952137</v>
+        <v>1.022782476217843</v>
       </c>
       <c r="L16">
-        <v>1.015476445833517</v>
+        <v>1.01716448253211</v>
       </c>
       <c r="M16">
-        <v>1.021091441725793</v>
+        <v>1.022491936679155</v>
       </c>
       <c r="N16">
-        <v>1.014827192686883</v>
+        <v>1.015869729244381</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9878866852485289</v>
+        <v>0.9878083983732763</v>
       </c>
       <c r="D17">
-        <v>1.010207890852348</v>
+        <v>1.010169918983244</v>
       </c>
       <c r="E17">
-        <v>1.003952022018444</v>
+        <v>1.004633114339347</v>
       </c>
       <c r="F17">
-        <v>1.00985657851226</v>
+        <v>1.010255768928287</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043741268852274</v>
+        <v>1.043730721908146</v>
       </c>
       <c r="J17">
-        <v>1.015818452868603</v>
+        <v>1.015743280274585</v>
       </c>
       <c r="K17">
-        <v>1.024039275134248</v>
+        <v>1.024001951812701</v>
       </c>
       <c r="L17">
-        <v>1.017891110993476</v>
+        <v>1.018560393037055</v>
       </c>
       <c r="M17">
-        <v>1.023693965503514</v>
+        <v>1.024086335557507</v>
       </c>
       <c r="N17">
-        <v>1.017261031587682</v>
+        <v>1.017185752239958</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9897629293096901</v>
+        <v>0.9890186839778846</v>
       </c>
       <c r="D18">
-        <v>1.011649780396821</v>
+        <v>1.011076326505632</v>
       </c>
       <c r="E18">
-        <v>1.005558811153745</v>
+        <v>1.005645817883626</v>
       </c>
       <c r="F18">
-        <v>1.011571647681559</v>
+        <v>1.01138351964943</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044415121053895</v>
+        <v>1.044117345762503</v>
       </c>
       <c r="J18">
-        <v>1.017218338502554</v>
+        <v>1.01650306911343</v>
       </c>
       <c r="K18">
-        <v>1.025270408383495</v>
+        <v>1.024706568399192</v>
       </c>
       <c r="L18">
-        <v>1.01928227721315</v>
+        <v>1.019367803623612</v>
       </c>
       <c r="M18">
-        <v>1.025193584729978</v>
+        <v>1.02500860972771</v>
       </c>
       <c r="N18">
-        <v>1.018662905219802</v>
+        <v>1.017946620066103</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9903988077228441</v>
+        <v>0.9894296351269763</v>
       </c>
       <c r="D19">
-        <v>1.012138543452588</v>
+        <v>1.011384131798064</v>
       </c>
       <c r="E19">
-        <v>1.006103548014278</v>
+        <v>1.005989830458257</v>
       </c>
       <c r="F19">
-        <v>1.012153105592468</v>
+        <v>1.011766592571408</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044643225053896</v>
+        <v>1.044248355690944</v>
       </c>
       <c r="J19">
-        <v>1.017692728287637</v>
+        <v>1.016761011479799</v>
       </c>
       <c r="K19">
-        <v>1.025687550696242</v>
+        <v>1.02494570625353</v>
       </c>
       <c r="L19">
-        <v>1.019753768775521</v>
+        <v>1.019641973428748</v>
       </c>
       <c r="M19">
-        <v>1.025701870493015</v>
+        <v>1.02532179286556</v>
       </c>
       <c r="N19">
-        <v>1.019137968692793</v>
+        <v>1.018204928740219</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.987539703357933</v>
+        <v>0.9875849499737851</v>
       </c>
       <c r="D20">
-        <v>1.009941281209475</v>
+        <v>1.010002591572724</v>
       </c>
       <c r="E20">
-        <v>1.003654958422161</v>
+        <v>1.00444621653371</v>
       </c>
       <c r="F20">
-        <v>1.009539501601203</v>
+        <v>1.010047628753687</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04361652160863</v>
+        <v>1.043659214546167</v>
       </c>
       <c r="J20">
-        <v>1.015559544896414</v>
+        <v>1.01560298447676</v>
       </c>
       <c r="K20">
-        <v>1.023811548912801</v>
+        <v>1.023871808543785</v>
       </c>
       <c r="L20">
-        <v>1.017633842814773</v>
+        <v>1.018411332552591</v>
       </c>
       <c r="M20">
-        <v>1.023416659054769</v>
+        <v>1.023916073986041</v>
       </c>
       <c r="N20">
-        <v>1.017001755936474</v>
+        <v>1.017045257206008</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9779616801645992</v>
+        <v>0.9814639945224867</v>
       </c>
       <c r="D21">
-        <v>1.002587823518042</v>
+        <v>1.005421355530593</v>
       </c>
       <c r="E21">
-        <v>0.9954656549103839</v>
+        <v>0.999335182275087</v>
       </c>
       <c r="F21">
-        <v>1.000799093053716</v>
+        <v>1.004354469589595</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040158227929786</v>
+        <v>1.041685775415488</v>
       </c>
       <c r="J21">
-        <v>1.008410612426339</v>
+        <v>1.011757674333426</v>
       </c>
       <c r="K21">
-        <v>1.017520334089092</v>
+        <v>1.020300741471656</v>
       </c>
       <c r="L21">
-        <v>1.010533444083487</v>
+        <v>1.014329160787956</v>
       </c>
       <c r="M21">
-        <v>1.015765342170788</v>
+        <v>1.019253812164911</v>
       </c>
       <c r="N21">
-        <v>1.009842671162298</v>
+        <v>1.013194486281207</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.971704330255604</v>
+        <v>0.9775155046941906</v>
       </c>
       <c r="D22">
-        <v>0.9977906006232242</v>
+        <v>1.002468883867949</v>
       </c>
       <c r="E22">
-        <v>0.9901269314319097</v>
+        <v>0.9960469969857239</v>
       </c>
       <c r="F22">
-        <v>0.9951016427379097</v>
+        <v>1.000690525343608</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037884950146013</v>
+        <v>1.040398806209996</v>
       </c>
       <c r="J22">
-        <v>1.003738719763436</v>
+        <v>1.00927529902875</v>
       </c>
       <c r="K22">
-        <v>1.013405953576499</v>
+        <v>1.017991589835616</v>
       </c>
       <c r="L22">
-        <v>1.005896546242379</v>
+        <v>1.011697172495658</v>
       </c>
       <c r="M22">
-        <v>1.010770765620847</v>
+        <v>1.016248315192483</v>
       </c>
       <c r="N22">
-        <v>1.005164143875941</v>
+        <v>1.010708585718866</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9750450476658745</v>
+        <v>0.9796185015618205</v>
       </c>
       <c r="D23">
-        <v>1.00035106288524</v>
+        <v>1.004041097690318</v>
       </c>
       <c r="E23">
-        <v>0.9929760774336364</v>
+        <v>0.9977974531205945</v>
       </c>
       <c r="F23">
-        <v>0.9981421853519135</v>
+        <v>1.002641138012129</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039099890898546</v>
+        <v>1.041085543286708</v>
       </c>
       <c r="J23">
-        <v>1.006233076025863</v>
+        <v>1.010597585979689</v>
       </c>
       <c r="K23">
-        <v>1.015602918031141</v>
+        <v>1.019221956254934</v>
       </c>
       <c r="L23">
-        <v>1.008371904485784</v>
+        <v>1.013098843088999</v>
       </c>
       <c r="M23">
-        <v>1.013436868814645</v>
+        <v>1.017848851363507</v>
       </c>
       <c r="N23">
-        <v>1.007662042410367</v>
+        <v>1.012032750468943</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.987696561619554</v>
+        <v>0.9876859485640822</v>
       </c>
       <c r="D24">
-        <v>1.01006180424502</v>
+        <v>1.010078222802175</v>
       </c>
       <c r="E24">
-        <v>1.003789247024012</v>
+        <v>1.004530691489667</v>
       </c>
       <c r="F24">
-        <v>1.009682837079801</v>
+        <v>1.010141705323597</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043672920352688</v>
+        <v>1.043691540708018</v>
       </c>
       <c r="J24">
-        <v>1.015676588835653</v>
+        <v>1.015666398885025</v>
       </c>
       <c r="K24">
-        <v>1.023914497689214</v>
+        <v>1.023930635298695</v>
       </c>
       <c r="L24">
-        <v>1.017750144412141</v>
+        <v>1.018478707541625</v>
       </c>
       <c r="M24">
-        <v>1.023542018537882</v>
+        <v>1.023993031643978</v>
       </c>
       <c r="N24">
-        <v>1.017118966091533</v>
+        <v>1.017108761670006</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.001468527389355</v>
+        <v>0.9966450926614305</v>
       </c>
       <c r="D25">
-        <v>1.020653959520736</v>
+        <v>1.016791057849666</v>
       </c>
       <c r="E25">
-        <v>1.01560107341829</v>
+        <v>1.012042501745426</v>
       </c>
       <c r="F25">
-        <v>1.022291936091551</v>
+        <v>1.018504782265247</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048590288966562</v>
+        <v>1.046525082765615</v>
       </c>
       <c r="J25">
-        <v>1.02594657059924</v>
+        <v>1.021285892732924</v>
       </c>
       <c r="K25">
-        <v>1.032939892119877</v>
+        <v>1.029134188522761</v>
       </c>
       <c r="L25">
-        <v>1.027961935717082</v>
+        <v>1.02445670608785</v>
       </c>
       <c r="M25">
-        <v>1.034553780819888</v>
+        <v>1.030822469733075</v>
       </c>
       <c r="N25">
-        <v>1.027403532407207</v>
+        <v>1.022736235843734</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_28/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_28/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.003498499313791</v>
+        <v>1.001638326166487</v>
       </c>
       <c r="D2">
-        <v>1.021929691345704</v>
+        <v>1.022375861836966</v>
       </c>
       <c r="E2">
-        <v>1.017813788727148</v>
+        <v>1.01629488195105</v>
       </c>
       <c r="F2">
-        <v>1.024926703229852</v>
+        <v>1.02347295407094</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048641857990049</v>
+        <v>1.048777781722675</v>
       </c>
       <c r="J2">
-        <v>1.025575072022808</v>
+        <v>1.023770145357942</v>
       </c>
       <c r="K2">
-        <v>1.033091736302196</v>
+        <v>1.033532024317207</v>
       </c>
       <c r="L2">
-        <v>1.029030404623464</v>
+        <v>1.027531776604752</v>
       </c>
       <c r="M2">
-        <v>1.03604935771129</v>
+        <v>1.034614679424166</v>
       </c>
       <c r="N2">
-        <v>1.027031506260188</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.011887543684221</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.034780273904223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.008319511675821</v>
+        <v>1.005404687831192</v>
       </c>
       <c r="D3">
-        <v>1.0255450689594</v>
+        <v>1.024861747349903</v>
       </c>
       <c r="E3">
-        <v>1.021886982483618</v>
+        <v>1.019440668835931</v>
       </c>
       <c r="F3">
-        <v>1.029457335063535</v>
+        <v>1.027069483335993</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050100390711047</v>
+        <v>1.04964358021579</v>
       </c>
       <c r="J3">
-        <v>1.028585919457697</v>
+        <v>1.025749092169684</v>
       </c>
       <c r="K3">
-        <v>1.035861204917738</v>
+        <v>1.035186100946609</v>
       </c>
       <c r="L3">
-        <v>1.03224726971593</v>
+        <v>1.029830701583161</v>
       </c>
       <c r="M3">
-        <v>1.039726682411722</v>
+        <v>1.0373673355401</v>
       </c>
       <c r="N3">
-        <v>1.030046629443781</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.012547829582795</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.035947183728783</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.011371567774271</v>
+        <v>1.00779867529256</v>
       </c>
       <c r="D4">
-        <v>1.027833709134427</v>
+        <v>1.026443363526882</v>
       </c>
       <c r="E4">
-        <v>1.024471486556903</v>
+        <v>1.021445749300752</v>
       </c>
       <c r="F4">
-        <v>1.03233133878506</v>
+        <v>1.029360435710278</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051009264080637</v>
+        <v>1.050180812344208</v>
       </c>
       <c r="J4">
-        <v>1.030488793836264</v>
+        <v>1.027004972280898</v>
       </c>
       <c r="K4">
-        <v>1.037607422279069</v>
+        <v>1.036232781435987</v>
       </c>
       <c r="L4">
-        <v>1.034283268103205</v>
+        <v>1.03129205381371</v>
       </c>
       <c r="M4">
-        <v>1.042054605201784</v>
+        <v>1.039116963778148</v>
       </c>
       <c r="N4">
-        <v>1.031952206122228</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.012966904486478</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.036688183716783</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.012639105098381</v>
+        <v>1.008797420942607</v>
       </c>
       <c r="D5">
-        <v>1.02878409313873</v>
+        <v>1.027105346947665</v>
       </c>
       <c r="E5">
-        <v>1.025546210178975</v>
+        <v>1.022283706989758</v>
       </c>
       <c r="F5">
-        <v>1.033526274518458</v>
+        <v>1.030317141289979</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051383194513797</v>
+        <v>1.050402925485014</v>
       </c>
       <c r="J5">
-        <v>1.031278259225885</v>
+        <v>1.027529458162386</v>
       </c>
       <c r="K5">
-        <v>1.038330889122705</v>
+        <v>1.036670597173506</v>
       </c>
       <c r="L5">
-        <v>1.035128666313258</v>
+        <v>1.031902375504143</v>
       </c>
       <c r="M5">
-        <v>1.043021337667744</v>
+        <v>1.039847149176147</v>
       </c>
       <c r="N5">
-        <v>1.032742792643255</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.013142201023917</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.037004958623432</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,81 +621,93 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.012851035444926</v>
+        <v>1.008967357251878</v>
       </c>
       <c r="D6">
-        <v>1.028942988112366</v>
+        <v>1.027220218820319</v>
       </c>
       <c r="E6">
-        <v>1.025725981235644</v>
+        <v>1.022426552549149</v>
       </c>
       <c r="F6">
-        <v>1.033726143848733</v>
+        <v>1.03047973803615</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05144550601652</v>
+        <v>1.05044195819461</v>
       </c>
       <c r="J6">
-        <v>1.031410207945746</v>
+        <v>1.027619941283671</v>
       </c>
       <c r="K6">
-        <v>1.038451747410118</v>
+        <v>1.036747829083553</v>
       </c>
       <c r="L6">
-        <v>1.035270004816055</v>
+        <v>1.03200702734419</v>
       </c>
       <c r="M6">
-        <v>1.043182968614869</v>
+        <v>1.039971747112367</v>
       </c>
       <c r="N6">
-        <v>1.032874928745433</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.013172773728841</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.037068347985671</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.011388564984074</v>
+        <v>1.007819597185768</v>
       </c>
       <c r="D7">
-        <v>1.027846453920487</v>
+        <v>1.026463132379652</v>
       </c>
       <c r="E7">
-        <v>1.024485892876745</v>
+        <v>1.021463812526688</v>
       </c>
       <c r="F7">
-        <v>1.03234735717524</v>
+        <v>1.029379784081074</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051014292370726</v>
+        <v>1.050189278199535</v>
       </c>
       <c r="J7">
-        <v>1.030499383527244</v>
+        <v>1.027019351822348</v>
       </c>
       <c r="K7">
-        <v>1.037617130679632</v>
+        <v>1.03624942873892</v>
       </c>
       <c r="L7">
-        <v>1.034294605284285</v>
+        <v>1.031306993307461</v>
       </c>
       <c r="M7">
-        <v>1.042067569055779</v>
+        <v>1.039133207852413</v>
       </c>
       <c r="N7">
-        <v>1.031962810851784</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.012972608490303</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.036720149525678</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.005142125063248</v>
+        <v>1.002929504875454</v>
       </c>
       <c r="D8">
-        <v>1.023162274568367</v>
+        <v>1.023234865157953</v>
       </c>
       <c r="E8">
-        <v>1.019201200027908</v>
+        <v>1.017372807616801</v>
       </c>
       <c r="F8">
-        <v>1.02647009013462</v>
+        <v>1.024703998056658</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049142121413266</v>
+        <v>1.049081811216199</v>
       </c>
       <c r="J8">
-        <v>1.026602209496412</v>
+        <v>1.024453068373428</v>
       </c>
       <c r="K8">
-        <v>1.034037378608414</v>
+        <v>1.034109040863221</v>
       </c>
       <c r="L8">
-        <v>1.030127211613221</v>
+        <v>1.02832248498148</v>
       </c>
       <c r="M8">
-        <v>1.037303058198285</v>
+        <v>1.035559420865266</v>
       </c>
       <c r="N8">
-        <v>1.028060102386816</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.012116563363614</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.035211293864439</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.993589564303807</v>
+        <v>0.9939560277932841</v>
       </c>
       <c r="D9">
-        <v>1.014500865311931</v>
+        <v>1.017315954697707</v>
       </c>
       <c r="E9">
-        <v>1.009476472499708</v>
+        <v>1.009910242402991</v>
       </c>
       <c r="F9">
-        <v>1.01564852465134</v>
+        <v>1.016165227409811</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045566569957324</v>
+        <v>1.046942167671702</v>
       </c>
       <c r="J9">
-        <v>1.019370740281932</v>
+        <v>1.019724034545587</v>
       </c>
       <c r="K9">
-        <v>1.027362976912724</v>
+        <v>1.030134203621472</v>
       </c>
       <c r="L9">
-        <v>1.022417649074173</v>
+        <v>1.022844553347359</v>
       </c>
       <c r="M9">
-        <v>1.028492716729217</v>
+        <v>1.029001368594246</v>
       </c>
       <c r="N9">
-        <v>1.02081836365659</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.010537972351755</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.032397597326892</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9854778058164075</v>
+        <v>0.9877225789693039</v>
       </c>
       <c r="D10">
-        <v>1.008424960315798</v>
+        <v>1.013218929077697</v>
       </c>
       <c r="E10">
-        <v>1.002684850518677</v>
+        <v>1.004759513680985</v>
       </c>
       <c r="F10">
-        <v>1.008085916157249</v>
+        <v>1.010262790313905</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042982990590929</v>
+        <v>1.045391142671382</v>
       </c>
       <c r="J10">
-        <v>1.014279686749493</v>
+        <v>1.016431922385356</v>
       </c>
       <c r="K10">
-        <v>1.022643747587534</v>
+        <v>1.027353544112456</v>
       </c>
       <c r="L10">
-        <v>1.017005797777186</v>
+        <v>1.019043362108897</v>
       </c>
       <c r="M10">
-        <v>1.022310695659938</v>
+        <v>1.024449186686926</v>
       </c>
       <c r="N10">
-        <v>1.015720080244183</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.009439817234404</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.030448389069125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9818574821289191</v>
+        <v>0.9849668071563396</v>
       </c>
       <c r="D11">
-        <v>1.005715712018781</v>
+        <v>1.011417779190589</v>
       </c>
       <c r="E11">
-        <v>0.9996632449880377</v>
+        <v>1.002491485016272</v>
       </c>
       <c r="F11">
-        <v>1.00471996799465</v>
+        <v>1.007659838595996</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041813453054705</v>
+        <v>1.044694279418254</v>
       </c>
       <c r="J11">
-        <v>1.012004984865207</v>
+        <v>1.014978639014336</v>
       </c>
       <c r="K11">
-        <v>1.020530637403306</v>
+        <v>1.026127538003563</v>
       </c>
       <c r="L11">
-        <v>1.014591514810736</v>
+        <v>1.017366568037504</v>
       </c>
       <c r="M11">
-        <v>1.019553418209153</v>
+        <v>1.022438732991589</v>
       </c>
       <c r="N11">
-        <v>1.01344214802231</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.008956515185696</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.029614609516544</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9804955423614614</v>
+        <v>0.9839281052244327</v>
       </c>
       <c r="D12">
-        <v>1.004696980194538</v>
+        <v>1.010735871931066</v>
       </c>
       <c r="E12">
-        <v>0.998528046187329</v>
+        <v>1.001637501684827</v>
       </c>
       <c r="F12">
-        <v>1.003455188584108</v>
+        <v>1.00668039823027</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041371081500036</v>
+        <v>1.044427273737688</v>
       </c>
       <c r="J12">
-        <v>1.011148935151114</v>
+        <v>1.014428582929594</v>
       </c>
       <c r="K12">
-        <v>1.019734743347063</v>
+        <v>1.025660239975378</v>
       </c>
       <c r="L12">
-        <v>1.013683500946582</v>
+        <v>1.016733396845769</v>
       </c>
       <c r="M12">
-        <v>1.018516490668757</v>
+        <v>1.021680721810212</v>
       </c>
       <c r="N12">
-        <v>1.012584882619432</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.008772879161728</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.029284210100772</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9807884775887071</v>
+        <v>0.984150440972648</v>
       </c>
       <c r="D13">
-        <v>1.004916073164324</v>
+        <v>1.010881104723052</v>
       </c>
       <c r="E13">
-        <v>0.9987721430758222</v>
+        <v>1.001820155233547</v>
       </c>
       <c r="F13">
-        <v>1.003727158486103</v>
+        <v>1.006890095101952</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041466336948041</v>
+        <v>1.044484114332927</v>
       </c>
       <c r="J13">
-        <v>1.011333073759668</v>
+        <v>1.014545929686885</v>
       </c>
       <c r="K13">
-        <v>1.019905971571792</v>
+        <v>1.025759423260621</v>
       </c>
       <c r="L13">
-        <v>1.013878791631808</v>
+        <v>1.016868649812656</v>
       </c>
       <c r="M13">
-        <v>1.018739503502194</v>
+        <v>1.021842877009121</v>
       </c>
       <c r="N13">
-        <v>1.012769282725932</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.008811909210603</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.029351825117682</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9817452603953646</v>
+        <v>0.9848807571074437</v>
       </c>
       <c r="D14">
-        <v>1.005631759998403</v>
+        <v>1.011360973689592</v>
       </c>
       <c r="E14">
-        <v>0.9995696752799484</v>
+        <v>1.002420675393842</v>
       </c>
       <c r="F14">
-        <v>1.004615721910066</v>
+        <v>1.007578716315254</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041777050642998</v>
+        <v>1.044672027845813</v>
       </c>
       <c r="J14">
-        <v>1.011934453914015</v>
+        <v>1.014932901859561</v>
       </c>
       <c r="K14">
-        <v>1.020465075946452</v>
+        <v>1.026088464755496</v>
       </c>
       <c r="L14">
-        <v>1.014516690981626</v>
+        <v>1.017313994392707</v>
       </c>
       <c r="M14">
-        <v>1.019467969640203</v>
+        <v>1.022375893825716</v>
       </c>
       <c r="N14">
-        <v>1.013371516909077</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.008941183661321</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.029585907116605</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.982332457279659</v>
+        <v>0.9853312287323418</v>
       </c>
       <c r="D15">
-        <v>1.006071056110494</v>
+        <v>1.011658451590663</v>
       </c>
       <c r="E15">
-        <v>1.000059337875646</v>
+        <v>1.002791425488696</v>
       </c>
       <c r="F15">
-        <v>1.005161246616681</v>
+        <v>1.008003429173281</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041967427850311</v>
+        <v>1.044788469960007</v>
       </c>
       <c r="J15">
-        <v>1.012303492202088</v>
+        <v>1.015172370667445</v>
       </c>
       <c r="K15">
-        <v>1.020808085795915</v>
+        <v>1.02629308020657</v>
       </c>
       <c r="L15">
-        <v>1.014908213875277</v>
+        <v>1.01758925488865</v>
       </c>
       <c r="M15">
-        <v>1.019915091040059</v>
+        <v>1.022704876678287</v>
       </c>
       <c r="N15">
-        <v>1.013741079273848</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.009021470965926</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.029736494776885</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9857157197286296</v>
+        <v>0.9879203799436942</v>
       </c>
       <c r="D16">
-        <v>1.008603061215246</v>
+        <v>1.013360590421274</v>
       </c>
       <c r="E16">
-        <v>1.002883623629701</v>
+        <v>1.004923907651499</v>
       </c>
       <c r="F16">
-        <v>1.008307312656084</v>
+        <v>1.01044810571893</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04305951152679</v>
+        <v>1.045448110954586</v>
       </c>
       <c r="J16">
-        <v>1.014429123532319</v>
+        <v>1.016543248742672</v>
       </c>
       <c r="K16">
-        <v>1.022782476217843</v>
+        <v>1.027456751964201</v>
       </c>
       <c r="L16">
-        <v>1.01716448253211</v>
+        <v>1.019168406730796</v>
       </c>
       <c r="M16">
-        <v>1.022491936679155</v>
+        <v>1.024595113148818</v>
       </c>
       <c r="N16">
-        <v>1.015869729244381</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.009479296893895</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.030562452446827</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9878083983732763</v>
+        <v>0.9895266066876718</v>
       </c>
       <c r="D17">
-        <v>1.010169918983244</v>
+        <v>1.014417550200659</v>
       </c>
       <c r="E17">
-        <v>1.004633114339347</v>
+        <v>1.006249065228693</v>
       </c>
       <c r="F17">
-        <v>1.010255768928287</v>
+        <v>1.011966712301247</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043730721908146</v>
+        <v>1.045853400460121</v>
       </c>
       <c r="J17">
-        <v>1.015743280274585</v>
+        <v>1.017393297944355</v>
       </c>
       <c r="K17">
-        <v>1.024001951812701</v>
+        <v>1.028177423268627</v>
       </c>
       <c r="L17">
-        <v>1.018560393037055</v>
+        <v>1.020148405741911</v>
       </c>
       <c r="M17">
-        <v>1.024086335557507</v>
+        <v>1.025768125333789</v>
       </c>
       <c r="N17">
-        <v>1.017185752239958</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.009763203439128</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.031074604679171</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9890186839778846</v>
+        <v>0.9904521473849986</v>
       </c>
       <c r="D18">
-        <v>1.011076326505632</v>
+        <v>1.015023121347987</v>
       </c>
       <c r="E18">
-        <v>1.005645817883626</v>
+        <v>1.00701300782328</v>
       </c>
       <c r="F18">
-        <v>1.01138351964943</v>
+        <v>1.012842984513812</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044117345762503</v>
+        <v>1.046083235679093</v>
       </c>
       <c r="J18">
-        <v>1.01650306911343</v>
+        <v>1.017880777891923</v>
       </c>
       <c r="K18">
-        <v>1.024706568399192</v>
+        <v>1.028587478722205</v>
       </c>
       <c r="L18">
-        <v>1.019367803623612</v>
+        <v>1.020711775755081</v>
       </c>
       <c r="M18">
-        <v>1.02500860972771</v>
+        <v>1.026443653491099</v>
       </c>
       <c r="N18">
-        <v>1.017946620066103</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.009925282605837</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.031352813331514</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9894296351269763</v>
+        <v>0.9907705812103373</v>
       </c>
       <c r="D19">
-        <v>1.011384131798064</v>
+        <v>1.015234480750707</v>
       </c>
       <c r="E19">
-        <v>1.005989830458257</v>
+        <v>1.007276306096657</v>
       </c>
       <c r="F19">
-        <v>1.011766592571408</v>
+        <v>1.013144186297092</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044248355690944</v>
+        <v>1.046163830895765</v>
       </c>
       <c r="J19">
-        <v>1.016761011479799</v>
+        <v>1.018050161232527</v>
       </c>
       <c r="K19">
-        <v>1.02494570625353</v>
+        <v>1.028732166654956</v>
       </c>
       <c r="L19">
-        <v>1.019641973428748</v>
+        <v>1.020906735958433</v>
       </c>
       <c r="M19">
-        <v>1.02532179286556</v>
+        <v>1.026676478718159</v>
       </c>
       <c r="N19">
-        <v>1.018204928740219</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.009982177848874</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.031461549796424</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9875849499737851</v>
+        <v>0.9893545371022214</v>
       </c>
       <c r="D20">
-        <v>1.010002591572724</v>
+        <v>1.014303991179534</v>
       </c>
       <c r="E20">
-        <v>1.00444621653371</v>
+        <v>1.006106990124825</v>
       </c>
       <c r="F20">
-        <v>1.010047628753687</v>
+        <v>1.011803995447885</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043659214546167</v>
+        <v>1.045809956290266</v>
       </c>
       <c r="J20">
-        <v>1.01560298447676</v>
+        <v>1.017302082314817</v>
       </c>
       <c r="K20">
-        <v>1.023871808543785</v>
+        <v>1.028099900338772</v>
       </c>
       <c r="L20">
-        <v>1.018411332552591</v>
+        <v>1.020043298792124</v>
       </c>
       <c r="M20">
-        <v>1.023916073986041</v>
+        <v>1.025642413508892</v>
       </c>
       <c r="N20">
-        <v>1.017045257206008</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.009732679921197</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.031018447928161</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9814639945224867</v>
+        <v>0.9846712858652437</v>
       </c>
       <c r="D21">
-        <v>1.005421355530593</v>
+        <v>1.011227264100855</v>
       </c>
       <c r="E21">
-        <v>0.999335182275087</v>
+        <v>1.002248864130753</v>
       </c>
       <c r="F21">
-        <v>1.004354469589595</v>
+        <v>1.00738061433895</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041685775415488</v>
+        <v>1.044620500601191</v>
       </c>
       <c r="J21">
-        <v>1.011757674333426</v>
+        <v>1.014824174849502</v>
       </c>
       <c r="K21">
-        <v>1.020300741471656</v>
+        <v>1.025999009297053</v>
       </c>
       <c r="L21">
-        <v>1.014329160787956</v>
+        <v>1.017187755979758</v>
       </c>
       <c r="M21">
-        <v>1.019253812164911</v>
+        <v>1.022223494967666</v>
       </c>
       <c r="N21">
-        <v>1.013194486281207</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.00890567518579</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.029536272314793</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9775155046941906</v>
+        <v>0.9816601478984271</v>
       </c>
       <c r="D22">
-        <v>1.002468883867949</v>
+        <v>1.009247675651101</v>
       </c>
       <c r="E22">
-        <v>0.9960469969857239</v>
+        <v>0.9997752531366471</v>
       </c>
       <c r="F22">
-        <v>1.000690525343608</v>
+        <v>1.004544097768291</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040398806209996</v>
+        <v>1.043840017656307</v>
       </c>
       <c r="J22">
-        <v>1.00927529902875</v>
+        <v>1.01322694685161</v>
       </c>
       <c r="K22">
-        <v>1.017991589835616</v>
+        <v>1.024638133675613</v>
       </c>
       <c r="L22">
-        <v>1.011697172495658</v>
+        <v>1.015351163621432</v>
       </c>
       <c r="M22">
-        <v>1.016248315192483</v>
+        <v>1.020026069494146</v>
       </c>
       <c r="N22">
-        <v>1.010708585718866</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.008371642010001</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.028560459385806</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9796185015618205</v>
+        <v>0.9832559245555368</v>
       </c>
       <c r="D23">
-        <v>1.004041097690318</v>
+        <v>1.010291710735</v>
       </c>
       <c r="E23">
-        <v>0.9977974531205945</v>
+        <v>1.001084867105853</v>
       </c>
       <c r="F23">
-        <v>1.002641138012129</v>
+        <v>1.006047339944297</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041085543286708</v>
+        <v>1.044252083330879</v>
       </c>
       <c r="J23">
-        <v>1.010597585979689</v>
+        <v>1.014070815611785</v>
       </c>
       <c r="K23">
-        <v>1.019221956254934</v>
+        <v>1.025353852803972</v>
       </c>
       <c r="L23">
-        <v>1.013098843088999</v>
+        <v>1.016322549179224</v>
       </c>
       <c r="M23">
-        <v>1.017848851363507</v>
+        <v>1.021189884117749</v>
       </c>
       <c r="N23">
-        <v>1.012032750468943</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.008652804992578</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.029056803922343</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9876859485640822</v>
+        <v>0.9894216976011724</v>
       </c>
       <c r="D24">
-        <v>1.010078222802175</v>
+        <v>1.014340347027953</v>
       </c>
       <c r="E24">
-        <v>1.004530691489667</v>
+        <v>1.006161544943992</v>
       </c>
       <c r="F24">
-        <v>1.010141705323597</v>
+        <v>1.011868587782486</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043691540708018</v>
+        <v>1.045822169336802</v>
       </c>
       <c r="J24">
-        <v>1.015666398885025</v>
+        <v>1.01733312059034</v>
       </c>
       <c r="K24">
-        <v>1.023930635298695</v>
+        <v>1.028120224777814</v>
       </c>
       <c r="L24">
-        <v>1.018478707541625</v>
+        <v>1.020081314107487</v>
       </c>
       <c r="M24">
-        <v>1.023993031643978</v>
+        <v>1.025690434924364</v>
       </c>
       <c r="N24">
-        <v>1.017108761670006</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.009741509477079</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.031005233762028</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9966450926614305</v>
+        <v>0.9963302897300664</v>
       </c>
       <c r="D25">
-        <v>1.016791057849666</v>
+        <v>1.018888718115798</v>
       </c>
       <c r="E25">
-        <v>1.012042501745426</v>
+        <v>1.011880088342826</v>
       </c>
       <c r="F25">
-        <v>1.018504782265247</v>
+        <v>1.018418427550774</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046525082765615</v>
+        <v>1.047525227794556</v>
       </c>
       <c r="J25">
-        <v>1.021285892732924</v>
+        <v>1.020981788561045</v>
       </c>
       <c r="K25">
-        <v>1.029134188522761</v>
+        <v>1.031200720304157</v>
       </c>
       <c r="L25">
-        <v>1.02445670608785</v>
+        <v>1.024296738617893</v>
       </c>
       <c r="M25">
-        <v>1.030822469733075</v>
+        <v>1.030737394500099</v>
       </c>
       <c r="N25">
-        <v>1.022736235843734</v>
+        <v>1.010959320708517</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.033180447123995</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_28/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_28/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.001638326166487</v>
+        <v>1.001670770867684</v>
       </c>
       <c r="D2">
-        <v>1.022375861836966</v>
+        <v>1.022029806650583</v>
       </c>
       <c r="E2">
-        <v>1.01629488195105</v>
+        <v>1.016316369845719</v>
       </c>
       <c r="F2">
-        <v>1.02347295407094</v>
+        <v>1.023473326395873</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.048777781722675</v>
+        <v>1.048610364158795</v>
       </c>
       <c r="J2">
-        <v>1.023770145357942</v>
+        <v>1.023801624045906</v>
       </c>
       <c r="K2">
-        <v>1.033532024317207</v>
+        <v>1.033190531089547</v>
       </c>
       <c r="L2">
-        <v>1.027531776604752</v>
+        <v>1.027552977085995</v>
       </c>
       <c r="M2">
-        <v>1.034614679424166</v>
+        <v>1.034615046856104</v>
       </c>
       <c r="N2">
-        <v>1.011887543684221</v>
+        <v>1.013550871057786</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.034780273904223</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.034547624411995</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.020967903473597</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.005404687831192</v>
+        <v>1.005296020450964</v>
       </c>
       <c r="D3">
-        <v>1.024861747349903</v>
+        <v>1.024331179153574</v>
       </c>
       <c r="E3">
-        <v>1.019440668835931</v>
+        <v>1.019338089861178</v>
       </c>
       <c r="F3">
-        <v>1.027069483335993</v>
+        <v>1.02694373309994</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.04964358021579</v>
+        <v>1.049380686809587</v>
       </c>
       <c r="J3">
-        <v>1.025749092169684</v>
+        <v>1.025643344465504</v>
       </c>
       <c r="K3">
-        <v>1.035186100946609</v>
+        <v>1.034661922758988</v>
       </c>
       <c r="L3">
-        <v>1.029830701583161</v>
+        <v>1.029729373775841</v>
       </c>
       <c r="M3">
-        <v>1.0373673355401</v>
+        <v>1.037243090998391</v>
       </c>
       <c r="N3">
-        <v>1.012547829582795</v>
+        <v>1.014039718447905</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.035947183728783</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.035585080719008</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.021256647522905</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.00779867529256</v>
+        <v>1.007601266744888</v>
       </c>
       <c r="D4">
-        <v>1.026443363526882</v>
+        <v>1.025796187753813</v>
       </c>
       <c r="E4">
-        <v>1.021445749300752</v>
+        <v>1.02126503950061</v>
       </c>
       <c r="F4">
-        <v>1.029360435710278</v>
+        <v>1.029155290248173</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.050180812344208</v>
+        <v>1.049857476361585</v>
       </c>
       <c r="J4">
-        <v>1.027004972280898</v>
+        <v>1.026812509904444</v>
       </c>
       <c r="K4">
-        <v>1.036232781435987</v>
+        <v>1.035592933789353</v>
       </c>
       <c r="L4">
-        <v>1.03129205381371</v>
+        <v>1.031113413860378</v>
       </c>
       <c r="M4">
-        <v>1.039116963778148</v>
+        <v>1.038914123813822</v>
       </c>
       <c r="N4">
-        <v>1.012966904486478</v>
+        <v>1.014350112173236</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.036688183716783</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.036244372834822</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.021436811079089</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.008797420942607</v>
+        <v>1.008563231327332</v>
       </c>
       <c r="D5">
-        <v>1.027105346947665</v>
+        <v>1.026409758876965</v>
       </c>
       <c r="E5">
-        <v>1.022283706989758</v>
+        <v>1.022070589645988</v>
       </c>
       <c r="F5">
-        <v>1.030317141289979</v>
+        <v>1.030079074132878</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.050402925485014</v>
+        <v>1.050054469496107</v>
       </c>
       <c r="J5">
-        <v>1.027529458162386</v>
+        <v>1.027300961485175</v>
       </c>
       <c r="K5">
-        <v>1.036670597173506</v>
+        <v>1.035982677351926</v>
       </c>
       <c r="L5">
-        <v>1.031902375504143</v>
+        <v>1.031691633568576</v>
       </c>
       <c r="M5">
-        <v>1.039847149176147</v>
+        <v>1.039611685019699</v>
       </c>
       <c r="N5">
-        <v>1.013142201023917</v>
+        <v>1.014480013484186</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.037004958623432</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.036527866904035</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.021511942286734</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.008967357251878</v>
+        <v>1.008726952144009</v>
       </c>
       <c r="D6">
-        <v>1.027220218820319</v>
+        <v>1.026516499036543</v>
       </c>
       <c r="E6">
-        <v>1.022426552549149</v>
+        <v>1.022207956446687</v>
       </c>
       <c r="F6">
-        <v>1.03047973803615</v>
+        <v>1.030236111557252</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.05044195819461</v>
+        <v>1.050089280424009</v>
       </c>
       <c r="J6">
-        <v>1.027619941283671</v>
+        <v>1.027385350252853</v>
       </c>
       <c r="K6">
-        <v>1.036747829083553</v>
+        <v>1.036051831933358</v>
       </c>
       <c r="L6">
-        <v>1.03200702734419</v>
+        <v>1.031790856454718</v>
       </c>
       <c r="M6">
-        <v>1.039971747112367</v>
+        <v>1.039730772015775</v>
       </c>
       <c r="N6">
-        <v>1.013172773728841</v>
+        <v>1.014502714194046</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.037068347985671</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.036586413545785</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.021525635623189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.007819597185768</v>
+        <v>1.007628989611397</v>
       </c>
       <c r="D7">
-        <v>1.026463132379652</v>
+        <v>1.02582025195428</v>
       </c>
       <c r="E7">
-        <v>1.021463812526688</v>
+        <v>1.02128915842104</v>
       </c>
       <c r="F7">
-        <v>1.029379784081074</v>
+        <v>1.029180582697041</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.050189278199535</v>
+        <v>1.049868328352876</v>
       </c>
       <c r="J7">
-        <v>1.027019351822348</v>
+        <v>1.026833517961707</v>
       </c>
       <c r="K7">
-        <v>1.03624942873892</v>
+        <v>1.035613824989825</v>
       </c>
       <c r="L7">
-        <v>1.031306993307461</v>
+        <v>1.031134338916293</v>
       </c>
       <c r="M7">
-        <v>1.039133207852413</v>
+        <v>1.038936244298354</v>
       </c>
       <c r="N7">
-        <v>1.012972608490303</v>
+        <v>1.014382250015052</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.036720149525678</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.036281338062654</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.021442361548367</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.002929504875454</v>
+        <v>1.002936476863375</v>
       </c>
       <c r="D8">
-        <v>1.023234865157953</v>
+        <v>1.022841258941104</v>
       </c>
       <c r="E8">
-        <v>1.017372807616801</v>
+        <v>1.017372188033196</v>
       </c>
       <c r="F8">
-        <v>1.024703998056658</v>
+        <v>1.024681213701659</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.049081811216199</v>
+        <v>1.048890309776725</v>
       </c>
       <c r="J8">
-        <v>1.024453068373428</v>
+        <v>1.024459839735628</v>
       </c>
       <c r="K8">
-        <v>1.034109040863221</v>
+        <v>1.033720470308268</v>
       </c>
       <c r="L8">
-        <v>1.02832248498148</v>
+        <v>1.028321873435496</v>
       </c>
       <c r="M8">
-        <v>1.035559420865266</v>
+        <v>1.03553692683068</v>
       </c>
       <c r="N8">
-        <v>1.012116563363614</v>
+        <v>1.013805071328172</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.035211293864439</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.034947621936565</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.02107503039498</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9939560277932841</v>
+        <v>0.9943085721498831</v>
       </c>
       <c r="D9">
-        <v>1.017315954697707</v>
+        <v>1.017368106407914</v>
       </c>
       <c r="E9">
-        <v>1.009910242402991</v>
+        <v>1.010212760952909</v>
       </c>
       <c r="F9">
-        <v>1.016165227409811</v>
+        <v>1.016450767921055</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.046942167671702</v>
+        <v>1.046980784028773</v>
       </c>
       <c r="J9">
-        <v>1.019724034545587</v>
+        <v>1.020063922715398</v>
       </c>
       <c r="K9">
-        <v>1.030134203621472</v>
+        <v>1.030185545667787</v>
       </c>
       <c r="L9">
-        <v>1.022844553347359</v>
+        <v>1.023142288157728</v>
       </c>
       <c r="M9">
-        <v>1.029001368594246</v>
+        <v>1.029282464505</v>
       </c>
       <c r="N9">
-        <v>1.010537972351755</v>
+        <v>1.01264735971436</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.032397597326892</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.032444703996716</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.02036606569845</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9877225789693039</v>
+        <v>0.988355429401518</v>
       </c>
       <c r="D10">
-        <v>1.013218929077697</v>
+        <v>1.01360787821596</v>
       </c>
       <c r="E10">
-        <v>1.004759513680985</v>
+        <v>1.005307538053299</v>
       </c>
       <c r="F10">
-        <v>1.010262790313905</v>
+        <v>1.010797428097058</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.045391142671382</v>
+        <v>1.045603785337287</v>
       </c>
       <c r="J10">
-        <v>1.016431922385356</v>
+        <v>1.017038792351021</v>
       </c>
       <c r="K10">
-        <v>1.027353544112456</v>
+        <v>1.027735709319476</v>
       </c>
       <c r="L10">
-        <v>1.019043362108897</v>
+        <v>1.019581619972707</v>
       </c>
       <c r="M10">
-        <v>1.024449186686926</v>
+        <v>1.02497443038901</v>
       </c>
       <c r="N10">
-        <v>1.009439817234404</v>
+        <v>1.011961948452989</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.030448389069125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.030731095340119</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.019863751759779</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9849668071563396</v>
+        <v>0.9857795474850299</v>
       </c>
       <c r="D11">
-        <v>1.011417779190589</v>
+        <v>1.011993647507123</v>
       </c>
       <c r="E11">
-        <v>1.002491485016272</v>
+        <v>1.003197793415052</v>
       </c>
       <c r="F11">
-        <v>1.007659838595996</v>
+        <v>1.008353765236256</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.044694279418254</v>
+        <v>1.045004488000793</v>
       </c>
       <c r="J11">
-        <v>1.014978639014336</v>
+        <v>1.015756118021492</v>
       </c>
       <c r="K11">
-        <v>1.026127538003563</v>
+        <v>1.026692871023706</v>
       </c>
       <c r="L11">
-        <v>1.017366568037504</v>
+        <v>1.018059654956802</v>
       </c>
       <c r="M11">
-        <v>1.022438732991589</v>
+        <v>1.023119842765988</v>
       </c>
       <c r="N11">
-        <v>1.008956515185696</v>
+        <v>1.011851811164121</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.029614609516544</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.030030043798292</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.019650772816548</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9839281052244327</v>
+        <v>0.9848139139637468</v>
       </c>
       <c r="D12">
-        <v>1.010735871931066</v>
+        <v>1.011385627176281</v>
       </c>
       <c r="E12">
-        <v>1.001637501684827</v>
+        <v>1.002408190161474</v>
       </c>
       <c r="F12">
-        <v>1.00668039823027</v>
+        <v>1.007439021534811</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.044427273737688</v>
+        <v>1.044776112751851</v>
       </c>
       <c r="J12">
-        <v>1.014428582929594</v>
+        <v>1.015275177812376</v>
       </c>
       <c r="K12">
-        <v>1.025660239975378</v>
+        <v>1.026297899717545</v>
       </c>
       <c r="L12">
-        <v>1.016733396845769</v>
+        <v>1.017489398024942</v>
       </c>
       <c r="M12">
-        <v>1.021680721810212</v>
+        <v>1.022425076025498</v>
       </c>
       <c r="N12">
-        <v>1.008772879161728</v>
+        <v>1.011826320256645</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.029284210100772</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.029750788658832</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.019569340662284</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.984150440972648</v>
+        <v>0.9850203776403512</v>
       </c>
       <c r="D13">
-        <v>1.010881104723052</v>
+        <v>1.0115148612353</v>
       </c>
       <c r="E13">
-        <v>1.001820155233547</v>
+        <v>1.002576859706917</v>
       </c>
       <c r="F13">
-        <v>1.006890095101952</v>
+        <v>1.007634664668441</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.044484114332927</v>
+        <v>1.04482458736688</v>
       </c>
       <c r="J13">
-        <v>1.014545929686885</v>
+        <v>1.015377520512005</v>
       </c>
       <c r="K13">
-        <v>1.025759423260621</v>
+        <v>1.026381425780061</v>
       </c>
       <c r="L13">
-        <v>1.016868649812656</v>
+        <v>1.017610988516311</v>
       </c>
       <c r="M13">
-        <v>1.021842877009121</v>
+        <v>1.022573496132484</v>
       </c>
       <c r="N13">
-        <v>1.008811909210603</v>
+        <v>1.011830780108956</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.029351825117682</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.02980709000317</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.019586460685188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9848807571074437</v>
+        <v>0.9856994435165362</v>
       </c>
       <c r="D14">
-        <v>1.011360973689592</v>
+        <v>1.011942879252103</v>
       </c>
       <c r="E14">
-        <v>1.002420675393842</v>
+        <v>1.00313222298296</v>
       </c>
       <c r="F14">
-        <v>1.007578716315254</v>
+        <v>1.008277907655263</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.044672027845813</v>
+        <v>1.044985392215927</v>
       </c>
       <c r="J14">
-        <v>1.014932901859561</v>
+        <v>1.01571600943416</v>
       </c>
       <c r="K14">
-        <v>1.026088464755496</v>
+        <v>1.026659709169005</v>
       </c>
       <c r="L14">
-        <v>1.017313994392707</v>
+        <v>1.018012202589618</v>
       </c>
       <c r="M14">
-        <v>1.022375893825716</v>
+        <v>1.023062151521481</v>
       </c>
       <c r="N14">
-        <v>1.008941183661321</v>
+        <v>1.011849247260174</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.029585907116605</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.030005417802003</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.019643892472461</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9853312287323418</v>
+        <v>0.9861189988483346</v>
       </c>
       <c r="D15">
-        <v>1.011658451590663</v>
+        <v>1.012208898430586</v>
       </c>
       <c r="E15">
-        <v>1.002791425488696</v>
+        <v>1.003475735068914</v>
       </c>
       <c r="F15">
-        <v>1.008003429173281</v>
+        <v>1.00867524747542</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.044788469960007</v>
+        <v>1.045085392341782</v>
       </c>
       <c r="J15">
-        <v>1.015172370667445</v>
+        <v>1.015926205130153</v>
       </c>
       <c r="K15">
-        <v>1.02629308020657</v>
+        <v>1.02683351850717</v>
       </c>
       <c r="L15">
-        <v>1.01758925488865</v>
+        <v>1.018260835539045</v>
       </c>
       <c r="M15">
-        <v>1.022704876678287</v>
+        <v>1.023364365900735</v>
       </c>
       <c r="N15">
-        <v>1.009021470965926</v>
+        <v>1.011863380965265</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.029736494776885</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.030134791655259</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.019679958242282</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9879203799436942</v>
+        <v>0.9885414920075271</v>
       </c>
       <c r="D16">
-        <v>1.013360590421274</v>
+        <v>1.013737374077893</v>
       </c>
       <c r="E16">
-        <v>1.004923907651499</v>
+        <v>1.00546156622662</v>
       </c>
       <c r="F16">
-        <v>1.01044810571893</v>
+        <v>1.010972352863761</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.045448110954586</v>
+        <v>1.045654402536285</v>
       </c>
       <c r="J16">
-        <v>1.016543248742672</v>
+        <v>1.017138958171432</v>
       </c>
       <c r="K16">
-        <v>1.027456751964201</v>
+        <v>1.027826985392755</v>
       </c>
       <c r="L16">
-        <v>1.019168406730796</v>
+        <v>1.019696515589028</v>
       </c>
       <c r="M16">
-        <v>1.024595113148818</v>
+        <v>1.025110180028132</v>
       </c>
       <c r="N16">
-        <v>1.009479296893895</v>
+        <v>1.011977765462389</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.030562452446827</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.030840701031809</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.019884371349998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9895266066876718</v>
+        <v>0.9900554550337074</v>
       </c>
       <c r="D17">
-        <v>1.014417550200659</v>
+        <v>1.014694114077119</v>
       </c>
       <c r="E17">
-        <v>1.006249065228693</v>
+        <v>1.00670564831283</v>
       </c>
       <c r="F17">
-        <v>1.011966712301247</v>
+        <v>1.012409207352005</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.045853400460121</v>
+        <v>1.046007530161721</v>
       </c>
       <c r="J17">
-        <v>1.017393297944355</v>
+        <v>1.0179012252652</v>
       </c>
       <c r="K17">
-        <v>1.028177423268627</v>
+        <v>1.028449315838585</v>
       </c>
       <c r="L17">
-        <v>1.020148405741911</v>
+        <v>1.020597115973678</v>
       </c>
       <c r="M17">
-        <v>1.025768125333789</v>
+        <v>1.026203101200318</v>
       </c>
       <c r="N17">
-        <v>1.009763203439128</v>
+        <v>1.012085677054432</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.031074604679171</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.031283565418797</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.020012174841879</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9904521473849986</v>
+        <v>0.9909321433104928</v>
       </c>
       <c r="D18">
-        <v>1.015023121347987</v>
+        <v>1.015244704877075</v>
       </c>
       <c r="E18">
-        <v>1.00701300782328</v>
+        <v>1.007426715012771</v>
       </c>
       <c r="F18">
-        <v>1.012842984513812</v>
+        <v>1.013242153207377</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.046083235679093</v>
+        <v>1.046208815816337</v>
       </c>
       <c r="J18">
-        <v>1.017880777891923</v>
+        <v>1.018342155272923</v>
       </c>
       <c r="K18">
-        <v>1.028587478722205</v>
+        <v>1.028805382874586</v>
       </c>
       <c r="L18">
-        <v>1.020711775755081</v>
+        <v>1.021118473340238</v>
       </c>
       <c r="M18">
-        <v>1.026443653491099</v>
+        <v>1.026836158713946</v>
       </c>
       <c r="N18">
-        <v>1.009925282605837</v>
+        <v>1.012161147403141</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.031352813331514</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.031522464835887</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.020084609991423</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9907705812103373</v>
+        <v>0.991234580113174</v>
       </c>
       <c r="D19">
-        <v>1.015234480750707</v>
+        <v>1.015437803464032</v>
       </c>
       <c r="E19">
-        <v>1.007276306096657</v>
+        <v>1.007675972390992</v>
       </c>
       <c r="F19">
-        <v>1.013144186297092</v>
+        <v>1.013529163490017</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.046163830895765</v>
+        <v>1.046279937997958</v>
       </c>
       <c r="J19">
-        <v>1.018050161232527</v>
+        <v>1.018496283452883</v>
       </c>
       <c r="K19">
-        <v>1.028732166654956</v>
+        <v>1.028932132979656</v>
       </c>
       <c r="L19">
-        <v>1.020906735958433</v>
+        <v>1.021299671250285</v>
       </c>
       <c r="M19">
-        <v>1.026676478718159</v>
+        <v>1.027055068495589</v>
       </c>
       <c r="N19">
-        <v>1.009982177848874</v>
+        <v>1.012190789458502</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.031461549796424</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.031619139245073</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.020110870490187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9893545371022214</v>
+        <v>0.9898928158864785</v>
       </c>
       <c r="D20">
-        <v>1.014303991179534</v>
+        <v>1.014590974561382</v>
       </c>
       <c r="E20">
-        <v>1.006106990124825</v>
+        <v>1.006571856619071</v>
       </c>
       <c r="F20">
-        <v>1.011803995447885</v>
+        <v>1.012254849627529</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.045809956290266</v>
+        <v>1.045969502988886</v>
       </c>
       <c r="J20">
-        <v>1.017302082314817</v>
+        <v>1.017818990205808</v>
       </c>
       <c r="K20">
-        <v>1.028099900338772</v>
+        <v>1.028382021272042</v>
       </c>
       <c r="L20">
-        <v>1.020043298792124</v>
+        <v>1.020500123859534</v>
       </c>
       <c r="M20">
-        <v>1.025642413508892</v>
+        <v>1.026085581507283</v>
       </c>
       <c r="N20">
-        <v>1.009732679921197</v>
+        <v>1.012072501981449</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.031018447928161</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.031234511675637</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.019998315182969</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9846712858652437</v>
+        <v>0.9855232333458069</v>
       </c>
       <c r="D21">
-        <v>1.011227264100855</v>
+        <v>1.01183675241873</v>
       </c>
       <c r="E21">
-        <v>1.002248864130753</v>
+        <v>1.002989967700272</v>
       </c>
       <c r="F21">
-        <v>1.00738061433895</v>
+        <v>1.008109174743951</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.044620500601191</v>
+        <v>1.044948593631471</v>
       </c>
       <c r="J21">
-        <v>1.014824174849502</v>
+        <v>1.015638944312983</v>
       </c>
       <c r="K21">
-        <v>1.025999009297053</v>
+        <v>1.026597291114208</v>
       </c>
       <c r="L21">
-        <v>1.017187755979758</v>
+        <v>1.0179149147774</v>
       </c>
       <c r="M21">
-        <v>1.022223494967666</v>
+        <v>1.022938527884676</v>
       </c>
       <c r="N21">
-        <v>1.00890567518579</v>
+        <v>1.011911331491858</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.029536272314793</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.029976210712277</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.019632606597318</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9816601478984271</v>
+        <v>0.9827131152119909</v>
       </c>
       <c r="D22">
-        <v>1.009247675651101</v>
+        <v>1.010063944776387</v>
       </c>
       <c r="E22">
-        <v>0.9997752531366471</v>
+        <v>1.000693379597454</v>
       </c>
       <c r="F22">
-        <v>1.004544097768291</v>
+        <v>1.005450790592061</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.043840017656307</v>
+        <v>1.04427598121809</v>
       </c>
       <c r="J22">
-        <v>1.01322694685161</v>
+        <v>1.014231255063912</v>
       </c>
       <c r="K22">
-        <v>1.024638133675613</v>
+        <v>1.025438635007192</v>
       </c>
       <c r="L22">
-        <v>1.015351163621432</v>
+        <v>1.016251113005679</v>
       </c>
       <c r="M22">
-        <v>1.020026069494146</v>
+        <v>1.020915034141347</v>
       </c>
       <c r="N22">
-        <v>1.008371642010001</v>
+        <v>1.011794907903605</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.028560459385806</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.029142084077715</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.019391679016013</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9832559245555368</v>
+        <v>0.9841902059605131</v>
       </c>
       <c r="D23">
-        <v>1.010291710735</v>
+        <v>1.010989978869319</v>
       </c>
       <c r="E23">
-        <v>1.001084867105853</v>
+        <v>1.001898306778991</v>
       </c>
       <c r="F23">
-        <v>1.006047339944297</v>
+        <v>1.006848892896343</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.044252083330879</v>
+        <v>1.044626301296402</v>
       </c>
       <c r="J23">
-        <v>1.014070815611785</v>
+        <v>1.014963204041343</v>
       </c>
       <c r="K23">
-        <v>1.025353852803972</v>
+        <v>1.02603897794717</v>
       </c>
       <c r="L23">
-        <v>1.016322549179224</v>
+        <v>1.017120309436331</v>
       </c>
       <c r="M23">
-        <v>1.021189884117749</v>
+        <v>1.021976185166151</v>
       </c>
       <c r="N23">
-        <v>1.008652804992578</v>
+        <v>1.011812560916298</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.029056803922343</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.029555907933278</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.019515418440815</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9894216976011724</v>
+        <v>0.9899561580678109</v>
       </c>
       <c r="D24">
-        <v>1.014340347027953</v>
+        <v>1.014622875848229</v>
       </c>
       <c r="E24">
-        <v>1.006161544943992</v>
+        <v>1.006623082726354</v>
       </c>
       <c r="F24">
-        <v>1.011868587782486</v>
+        <v>1.012316049364183</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.045822169336802</v>
+        <v>1.045979407431736</v>
       </c>
       <c r="J24">
-        <v>1.01733312059034</v>
+        <v>1.01784639560485</v>
       </c>
       <c r="K24">
-        <v>1.028120224777814</v>
+        <v>1.028397973186043</v>
       </c>
       <c r="L24">
-        <v>1.020081314107487</v>
+        <v>1.020534879403915</v>
       </c>
       <c r="M24">
-        <v>1.025690434924364</v>
+        <v>1.026130279186332</v>
       </c>
       <c r="N24">
-        <v>1.009741509477079</v>
+        <v>1.012074637985226</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.031005233762028</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.03121553575949</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020000317654666</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9963302897300664</v>
+        <v>0.9965812797618027</v>
       </c>
       <c r="D25">
-        <v>1.018888718115798</v>
+        <v>1.018816417311075</v>
       </c>
       <c r="E25">
-        <v>1.011880088342826</v>
+        <v>1.012093507494437</v>
       </c>
       <c r="F25">
-        <v>1.018418427550774</v>
+        <v>1.018613599715416</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.047525227794556</v>
+        <v>1.04749948525505</v>
       </c>
       <c r="J25">
-        <v>1.020981788561045</v>
+        <v>1.021224247790196</v>
       </c>
       <c r="K25">
-        <v>1.031200720304157</v>
+        <v>1.031129489705578</v>
       </c>
       <c r="L25">
-        <v>1.024296738617893</v>
+        <v>1.024506943900662</v>
       </c>
       <c r="M25">
-        <v>1.030737394500099</v>
+        <v>1.030929675273439</v>
       </c>
       <c r="N25">
-        <v>1.010959320708517</v>
+        <v>1.012923660030405</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.033180447123995</v>
+        <v>1.033143685863505</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.020558637106673</v>
       </c>
     </row>
   </sheetData>
